--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4695,7 +4695,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>3</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1868,10 +1868,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3466</x:v>
+        <x:v>3468</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4772,13 +4772,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>1</x:v>
@@ -4796,7 +4796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2822,7 +2822,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>
@@ -2846,7 +2846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1853,7 +1853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1871,7 +1871,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,13 +2367,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3468</x:v>
+        <x:v>3469</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2334,7 +2334,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>246</x:v>
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2388,10 +2388,10 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3469</x:v>
+        <x:v>3474</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4920,13 +4920,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1850,7 +1850,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
         <x:v>85</x:v>
@@ -1871,7 +1871,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4695,7 +4695,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>3</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2243,7 +2243,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>1</x:v>
@@ -2261,7 +2261,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4908,7 +4908,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>0</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3474</x:v>
+        <x:v>3473</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -860,7 +860,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3475</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4686,7 +4686,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3475</x:v>
+        <x:v>3476</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4166,7 +4166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4211,7 +4211,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2234,7 +2234,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
         <x:v>38</x:v>
@@ -2261,7 +2261,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>512</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3476</x:v>
+        <x:v>3475</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2334,7 +2334,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>246</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3475</x:v>
+        <x:v>3473</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4778,7 +4778,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>1</x:v>
@@ -4796,7 +4796,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3472</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -795,7 +795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -825,13 +825,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3472</x:v>
+        <x:v>3471</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4902,7 +4902,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>1</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4326,7 +4326,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="n">
         <x:v>2</x:v>
@@ -4341,7 +4341,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1101</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -857,7 +857,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>53</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>604</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2367,13 +2367,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,7 +2385,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
@@ -4902,7 +4902,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>1</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -5032,7 +5032,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>5</x:v>
@@ -5056,7 +5056,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -842,7 +842,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -893,7 +893,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
         <x:v>606</x:v>
@@ -1826,7 +1826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1871,7 +1871,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3471</x:v>
+        <x:v>3473</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1980,7 +1980,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
         <x:v>23</x:v>
@@ -2001,7 +2001,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>511</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3473</x:v>
+        <x:v>3474</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -5197,7 +5197,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -5227,7 +5227,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
@@ -5251,7 +5251,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3474</x:v>
+        <x:v>3477</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>514</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3477</x:v>
+        <x:v>3478</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3478</x:v>
+        <x:v>3482</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -5505,13 +5505,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>485</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3482</x:v>
+        <x:v>3481</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -786,7 +786,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -831,7 +831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -1540,13 +1540,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T13" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>559</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3481</x:v>
+        <x:v>3480</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4482,7 +4482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
@@ -4536,7 +4536,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -786,7 +786,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3480</x:v>
+        <x:v>3481</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1995,13 +1995,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S20" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="T20" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2337,7 +2337,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3481</x:v>
+        <x:v>3484</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3829,19 +3829,19 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
@@ -3850,7 +3850,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>3</x:v>
@@ -3859,34 +3859,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L49" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R49" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3484</x:v>
+        <x:v>3483</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3841,16 +3841,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>3</x:v>
@@ -3862,13 +3862,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
         <x:v>14</x:v>
@@ -3886,7 +3886,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2334,10 +2334,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
         <x:v>435</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3483</x:v>
+        <x:v>3493</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3915,7 +3915,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3951,7 +3951,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3494</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3537,7 +3537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>2</x:v>
@@ -3561,7 +3561,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3494</x:v>
+        <x:v>3495</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3832,7 +3832,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
@@ -3841,7 +3841,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
@@ -3862,13 +3862,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
         <x:v>14</x:v>
@@ -3886,7 +3886,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -5682,7 +5682,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
         <x:v>0</x:v>
@@ -5700,13 +5700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U77" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4908,7 +4908,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>0</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>559</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>516</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2379,19 +2379,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R26" s="0" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>489</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3495</x:v>
+        <x:v>3487</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>556</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,25 +2373,25 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R26" s="0" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3487</x:v>
+        <x:v>3495</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -839,10 +839,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1977,7 +1977,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
         <x:v>2</x:v>
@@ -2001,7 +2001,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3495</x:v>
+        <x:v>3496</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3832,7 +3832,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
@@ -3886,7 +3886,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3496</x:v>
+        <x:v>3497</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3497</x:v>
+        <x:v>3499</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -860,7 +860,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -893,10 +893,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1770,7 +1770,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
@@ -1806,7 +1806,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1847,7 +1847,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>3</x:v>
@@ -1871,7 +1871,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>491</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3499</x:v>
+        <x:v>3501</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4890,7 +4890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
         <x:v>0</x:v>
@@ -4902,7 +4902,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>1</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>611</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>458</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>493</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3493</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4946,7 +4946,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4991,7 +4991,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>516</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>515</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3495</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>436</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3495</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2996,7 +2996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
@@ -3041,7 +3041,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1826,7 +1826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1865,13 +1865,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3491</x:v>
+        <x:v>3489</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3023,7 +3023,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O36" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P36" s="0" t="n">
         <x:v>0</x:v>
@@ -3041,7 +3041,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3489</x:v>
+        <x:v>3490</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1868,10 +1868,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -4899,7 +4899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
         <x:v>150</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3490</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2352,10 +2352,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3491</x:v>
+        <x:v>3492</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3883,10 +3883,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -4955,7 +4955,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>1</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
         <x:v>515</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1995,13 +1995,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S20" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T20" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2337,7 +2337,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,13 +2367,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>486</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3492</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3880,13 +3880,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -5487,7 +5487,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
@@ -5511,7 +5511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2343,7 +2343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
         <x:v>556</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3491</x:v>
+        <x:v>3490</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4967,13 +4967,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>13</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2373,7 +2373,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>24</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3490</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -5487,7 +5487,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
@@ -5511,7 +5511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -5531,7 +5531,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
@@ -5576,7 +5576,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>518</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3491</x:v>
+        <x:v>3492</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -851,7 +851,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>2</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,7 +2385,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3492</x:v>
+        <x:v>3493</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4713,7 +4713,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
         <x:v>13</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>483</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3492</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4955,7 +4955,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>1</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
         <x:v>515</x:v>
@@ -5531,7 +5531,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
@@ -5576,7 +5576,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3492</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -3832,16 +3832,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
@@ -3850,7 +3850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>3</x:v>
@@ -3862,13 +3862,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
         <x:v>14</x:v>
@@ -3886,7 +3886,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3491</x:v>
+        <x:v>3493</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4036,7 +4036,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
@@ -4054,7 +4054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
         <x:v>40</x:v>
@@ -4081,7 +4081,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -1868,10 +1868,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>249</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3494</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -860,7 +860,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -893,10 +893,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1823,10 +1823,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1835,16 +1835,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
         <x:v>24</x:v>
@@ -1868,10 +1868,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2334,10 +2334,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2346,7 +2346,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>556</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2364,19 +2364,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="n">
         <x:v>6</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3494</x:v>
+        <x:v>3516</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -4305,7 +4305,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>2</x:v>
@@ -4335,13 +4335,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="S56" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4878,7 +4878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>59</x:v>
@@ -4902,7 +4902,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>1</x:v>
@@ -4920,13 +4920,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -842,7 +842,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -851,7 +851,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>2</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2373,7 +2373,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>25</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3516</x:v>
+        <x:v>3517</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -851,7 +851,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>2</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2337,7 +2337,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2346,16 +2346,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>35</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>483</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3517</x:v>
+        <x:v>3519</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4967,7 +4967,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>6</x:v>
@@ -4991,7 +4991,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2337,7 +2337,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>25</x:v>
@@ -2385,13 +2385,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3519</x:v>
+        <x:v>3522</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4937,7 +4937,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4946,7 +4946,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4991,7 +4991,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2352,7 +2352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>526</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>25</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3522</x:v>
+        <x:v>3524</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2334,7 +2334,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>259</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3524</x:v>
+        <x:v>3525</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -5487,7 +5487,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
@@ -5511,7 +5511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2346,7 +2346,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>3</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>25</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3525</x:v>
+        <x:v>3527</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4677,7 +4677,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>5</x:v>
@@ -4707,7 +4707,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>3</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -5519,7 +5519,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
         <x:v>27</x:v>
@@ -5576,7 +5576,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -860,7 +860,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -2334,7 +2334,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>259</x:v>
@@ -2352,10 +2352,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>35</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>3527</x:v>
+        <x:v>3529</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3413,7 +3413,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>2</x:v>
@@ -3431,7 +3431,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -4923,10 +4923,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -343,7 +343,7 @@
     <x:t>203</x:t>
   </x:si>
   <x:si>
-    <x:t>261</x:t>
+    <x:t>260</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -358,22 +358,22 @@
     <x:t>524</x:t>
   </x:si>
   <x:si>
-    <x:t>433</x:t>
+    <x:t>432</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>482</x:t>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481</x:t>
   </x:si>
   <x:si>
     <x:t>250</x:t>
   </x:si>
   <x:si>
-    <x:t>3528</x:t>
+    <x:t>3523</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -292,271 +292,274 @@
     <x:t>24</x:t>
   </x:si>
   <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
     <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
   </x:si>
   <x:si>
     <x:t>1105</x:t>
@@ -4710,15 +4713,15 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="T56" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4733,7 +4736,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>23</x:v>
@@ -4778,12 +4781,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4848,7 +4851,7 @@
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4884,7 +4887,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>22</x:v>
@@ -4913,7 +4916,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4978,7 +4981,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>23</x:v>
@@ -5043,7 +5046,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5058,7 +5061,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>23</x:v>
@@ -5067,7 +5070,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
         <x:v>36</x:v>
@@ -5079,7 +5082,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
         <x:v>36</x:v>
@@ -5097,18 +5100,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5123,7 +5126,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>36</x:v>
@@ -5168,12 +5171,12 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5233,12 +5236,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>24</x:v>
@@ -5274,7 +5277,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>24</x:v>
@@ -5292,18 +5295,18 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>28</x:v>
@@ -5318,7 +5321,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>23</x:v>
@@ -5327,7 +5330,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>24</x:v>
@@ -5363,12 +5366,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5433,7 +5436,7 @@
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>23</x:v>
@@ -5498,7 +5501,7 @@
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5563,7 +5566,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>44</x:v>
@@ -5628,7 +5631,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5693,7 +5696,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5758,7 +5761,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5823,7 +5826,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5888,13 +5891,13 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5924,7 +5927,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>28</x:v>
@@ -5948,12 +5951,12 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>23</x:v>
@@ -6018,7 +6021,7 @@
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6083,7 +6086,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6143,12 +6146,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6163,7 +6166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
         <x:v>23</x:v>
@@ -6184,7 +6187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>36</x:v>
@@ -6205,15 +6208,15 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -289,99 +289,102 @@
     <x:t>Dakota</x:t>
   </x:si>
   <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
     <x:t>190</x:t>
   </x:si>
   <x:si>
@@ -404,9 +407,6 @@
   </x:si>
   <x:si>
     <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
@@ -2210,7 +2210,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>36</x:v>
@@ -2222,7 +2222,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>36</x:v>
@@ -2240,10 +2240,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="T18" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
         <x:v>94</x:v>
@@ -2860,7 +2860,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>23</x:v>
@@ -2896,12 +2896,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -2961,12 +2961,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3026,12 +3026,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3096,7 +3096,7 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3161,7 +3161,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3176,7 +3176,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>23</x:v>
@@ -3416,7 +3416,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -4255,7 +4255,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>57</x:v>
@@ -4346,7 +4346,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
@@ -4373,7 +4373,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>23</x:v>
@@ -4677,7 +4677,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
         <x:v>177</x:v>
@@ -5886,7 +5886,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5971,7 +5971,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -5992,7 +5992,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>23</x:v>
@@ -6016,7 +6016,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -343,7 +343,7 @@
     <x:t>203</x:t>
   </x:si>
   <x:si>
-    <x:t>260</x:t>
+    <x:t>261</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -373,7 +373,7 @@
     <x:t>250</x:t>
   </x:si>
   <x:si>
-    <x:t>3526</x:t>
+    <x:t>3527</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -364,7 +364,7 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>465</x:t>
+    <x:t>466</x:t>
   </x:si>
   <x:si>
     <x:t>481</x:t>
@@ -373,7 +373,7 @@
     <x:t>250</x:t>
   </x:si>
   <x:si>
-    <x:t>3527</x:t>
+    <x:t>3528</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -343,37 +343,37 @@
     <x:t>203</x:t>
   </x:si>
   <x:si>
-    <x:t>261</x:t>
+    <x:t>265</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
   </x:si>
   <x:si>
-    <x:t>561</x:t>
+    <x:t>562</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
   </x:si>
   <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>433</x:t>
+    <x:t>529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3528</x:t>
+    <x:t>467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3550</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -619,7 +619,7 @@
     <x:t>151</x:t>
   </x:si>
   <x:si>
-    <x:t>368</x:t>
+    <x:t>367</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -2757,7 +2757,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="R26" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="S26" s="0" t="s">
         <x:v>117</x:v>
@@ -5283,7 +5283,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -112,553 +112,553 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Traverse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
     <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Traverse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
@@ -1915,7 +1915,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
         <x:v>44</x:v>
@@ -2896,12 +2896,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -2961,12 +2961,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3026,12 +3026,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3096,7 +3096,7 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3161,7 +3161,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3185,7 +3185,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
         <x:v>24</x:v>
@@ -3203,7 +3203,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>23</x:v>
@@ -3221,12 +3221,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3291,7 +3291,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3356,7 +3356,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3421,7 +3421,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3486,7 +3486,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3551,7 +3551,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3611,12 +3611,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3676,12 +3676,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U40" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3746,7 +3746,7 @@
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -3782,13 +3782,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>22</x:v>
@@ -3806,12 +3806,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3853,7 +3853,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P43" s="0" t="s">
         <x:v>23</x:v>
@@ -3871,12 +3871,12 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3936,12 +3936,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4006,7 +4006,7 @@
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>23</x:v>
@@ -4071,7 +4071,7 @@
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>53</x:v>
@@ -4086,7 +4086,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>22</x:v>
@@ -4107,7 +4107,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
         <x:v>44</x:v>
@@ -4131,12 +4131,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>23</x:v>
@@ -4201,13 +4201,13 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>23</x:v>
@@ -4216,16 +4216,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
         <x:v>36</x:v>
@@ -4243,7 +4243,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
         <x:v>39</x:v>
@@ -4261,12 +4261,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4326,12 +4326,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U50" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>23</x:v>
@@ -4391,12 +4391,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>24</x:v>
@@ -4456,12 +4456,12 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4526,7 +4526,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4541,7 +4541,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>23</x:v>
@@ -4562,7 +4562,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>36</x:v>
@@ -4586,12 +4586,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4656,7 +4656,7 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>105</x:v>
@@ -4671,7 +4671,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4680,7 +4680,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
         <x:v>22</x:v>
@@ -4692,13 +4692,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O56" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
         <x:v>57</x:v>
@@ -4710,33 +4710,33 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="T56" s="0" t="s">
+      <x:c r="U56" s="1" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="U56" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>23</x:v>
@@ -4781,12 +4781,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4846,12 +4846,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4887,7 +4887,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>22</x:v>
@@ -4916,7 +4916,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4981,7 +4981,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>23</x:v>
@@ -5046,7 +5046,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5061,7 +5061,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>23</x:v>
@@ -5070,7 +5070,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
         <x:v>36</x:v>
@@ -5082,13 +5082,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O62" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
         <x:v>37</x:v>
@@ -5100,18 +5100,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5126,7 +5126,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>36</x:v>
@@ -5171,12 +5171,12 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5236,12 +5236,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>24</x:v>
@@ -5256,7 +5256,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5277,13 +5277,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5295,18 +5295,18 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>28</x:v>
@@ -5321,7 +5321,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>23</x:v>
@@ -5330,7 +5330,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>24</x:v>
@@ -5342,13 +5342,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O66" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
         <x:v>37</x:v>
@@ -5366,12 +5366,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5436,7 +5436,7 @@
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>23</x:v>
@@ -5501,7 +5501,7 @@
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5566,7 +5566,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>44</x:v>
@@ -5631,7 +5631,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5696,7 +5696,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5761,7 +5761,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5826,7 +5826,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5891,13 +5891,13 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5906,7 +5906,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>23</x:v>
@@ -5933,7 +5933,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
         <x:v>24</x:v>
@@ -6016,7 +6016,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -6146,7 +6146,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
@@ -6205,10 +6205,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S79" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
         <x:v>223</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -355,7 +355,7 @@
     <x:t>129</x:t>
   </x:si>
   <x:si>
-    <x:t>529</x:t>
+    <x:t>528</x:t>
   </x:si>
   <x:si>
     <x:t>436</x:t>
@@ -367,13 +367,16 @@
     <x:t>467</x:t>
   </x:si>
   <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
     <x:t>485</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3550</x:t>
+    <x:t>3548</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -2757,21 +2760,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="R26" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="T26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="U26" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2836,7 +2839,7 @@
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>23</x:v>
@@ -2860,7 +2863,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>23</x:v>
@@ -2901,7 +2904,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -2961,12 +2964,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3026,12 +3029,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3096,7 +3099,7 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3161,7 +3164,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3185,7 +3188,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
         <x:v>24</x:v>
@@ -3203,7 +3206,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>23</x:v>
@@ -3221,12 +3224,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3291,7 +3294,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3356,7 +3359,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3421,7 +3424,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3486,7 +3489,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3551,7 +3554,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3611,12 +3614,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3676,12 +3679,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U40" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3746,7 +3749,7 @@
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -3782,13 +3785,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>22</x:v>
@@ -3806,12 +3809,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3853,7 +3856,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P43" s="0" t="s">
         <x:v>23</x:v>
@@ -3871,12 +3874,12 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3936,12 +3939,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4006,7 +4009,7 @@
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>23</x:v>
@@ -4071,7 +4074,7 @@
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>53</x:v>
@@ -4086,7 +4089,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>22</x:v>
@@ -4107,7 +4110,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
         <x:v>44</x:v>
@@ -4131,12 +4134,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>23</x:v>
@@ -4201,13 +4204,13 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>23</x:v>
@@ -4216,7 +4219,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>23</x:v>
@@ -4225,7 +4228,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
         <x:v>36</x:v>
@@ -4243,7 +4246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
         <x:v>39</x:v>
@@ -4261,12 +4264,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4326,12 +4329,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U50" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>23</x:v>
@@ -4346,7 +4349,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
@@ -4373,7 +4376,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>23</x:v>
@@ -4391,12 +4394,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>24</x:v>
@@ -4456,12 +4459,12 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4526,7 +4529,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4541,7 +4544,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>23</x:v>
@@ -4562,7 +4565,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>36</x:v>
@@ -4586,12 +4589,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4656,7 +4659,7 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>105</x:v>
@@ -4671,16 +4674,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
         <x:v>22</x:v>
@@ -4692,13 +4695,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O56" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
         <x:v>57</x:v>
@@ -4710,18 +4713,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="T56" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4736,7 +4739,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>23</x:v>
@@ -4781,12 +4784,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4846,12 +4849,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4887,7 +4890,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>22</x:v>
@@ -4916,7 +4919,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4981,7 +4984,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>23</x:v>
@@ -5046,7 +5049,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5061,7 +5064,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>23</x:v>
@@ -5070,7 +5073,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
         <x:v>36</x:v>
@@ -5082,13 +5085,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O62" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
         <x:v>37</x:v>
@@ -5100,18 +5103,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5126,7 +5129,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>36</x:v>
@@ -5171,12 +5174,12 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5236,12 +5239,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>24</x:v>
@@ -5256,7 +5259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5277,13 +5280,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5295,18 +5298,18 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>28</x:v>
@@ -5321,7 +5324,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>23</x:v>
@@ -5330,7 +5333,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>24</x:v>
@@ -5342,13 +5345,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O66" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
         <x:v>37</x:v>
@@ -5366,12 +5369,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5436,7 +5439,7 @@
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>23</x:v>
@@ -5501,7 +5504,7 @@
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5566,7 +5569,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>44</x:v>
@@ -5631,7 +5634,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5696,7 +5699,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5761,7 +5764,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5826,7 +5829,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5891,13 +5894,13 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5906,7 +5909,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>23</x:v>
@@ -5927,13 +5930,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
         <x:v>24</x:v>
@@ -5951,12 +5954,12 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>23</x:v>
@@ -5971,7 +5974,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -5992,7 +5995,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>23</x:v>
@@ -6016,12 +6019,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6086,7 +6089,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6146,12 +6149,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6166,7 +6169,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
         <x:v>23</x:v>
@@ -6187,7 +6190,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>36</x:v>
@@ -6205,18 +6208,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S79" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -358,7 +358,7 @@
     <x:t>528</x:t>
   </x:si>
   <x:si>
-    <x:t>436</x:t>
+    <x:t>435</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -376,7 +376,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3548</x:t>
+    <x:t>3547</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -199,13 +199,13 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>71</x:t>
+    <x:t>72</x:t>
   </x:si>
   <x:si>
     <x:t>73</x:t>
   </x:si>
   <x:si>
-    <x:t>236</x:t>
+    <x:t>239</x:t>
   </x:si>
   <x:si>
     <x:t>Brown</x:t>
@@ -355,7 +355,7 @@
     <x:t>129</x:t>
   </x:si>
   <x:si>
-    <x:t>528</x:t>
+    <x:t>527</x:t>
   </x:si>
   <x:si>
     <x:t>435</x:t>
@@ -376,7 +376,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3547</x:t>
+    <x:t>3546</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -1507,7 +1507,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
         <x:v>62</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T7" s="0" t="s">
         <x:v>57</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -196,102 +196,102 @@
     <x:t>Blue Earth</x:t>
   </x:si>
   <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
     <x:t>86</x:t>
   </x:si>
   <x:si>
@@ -598,7 +598,7 @@
     <x:t>91</x:t>
   </x:si>
   <x:si>
-    <x:t>388</x:t>
+    <x:t>387</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -1498,7 +1498,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>24</x:v>
@@ -1510,7 +1510,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1534,12 +1534,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1604,7 +1604,7 @@
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>23</x:v>
@@ -1640,7 +1640,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>24</x:v>
@@ -1664,12 +1664,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>23</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
@@ -1705,7 +1705,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>23</x:v>
@@ -1794,12 +1794,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1814,7 +1814,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>23</x:v>
@@ -1835,13 +1835,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
         <x:v>24</x:v>
@@ -1859,18 +1859,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>37</x:v>
@@ -1900,19 +1900,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>22</x:v>
@@ -1924,12 +1924,12 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1994,7 +1994,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2059,7 +2059,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>23</x:v>
@@ -2124,7 +2124,7 @@
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>23</x:v>
@@ -2139,7 +2139,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>23</x:v>
@@ -2160,13 +2160,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>36</x:v>
@@ -2178,24 +2178,24 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>23</x:v>
@@ -2204,7 +2204,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>23</x:v>
@@ -2213,7 +2213,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>36</x:v>
@@ -2225,7 +2225,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>36</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="T18" s="0" t="s">
         <x:v>93</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="T20" s="0" t="s">
         <x:v>24</x:v>
@@ -2754,7 +2754,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="P26" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
         <x:v>28</x:v>
@@ -2854,7 +2854,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>23</x:v>
@@ -2899,7 +2899,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2946,7 +2946,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="P29" s="0" t="s">
         <x:v>23</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
@@ -3354,7 +3354,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U35" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -3374,7 +3374,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>23</x:v>
@@ -3439,7 +3439,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>23</x:v>
@@ -3460,7 +3460,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N37" s="0" t="s">
         <x:v>23</x:v>
@@ -3549,7 +3549,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3764,7 +3764,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3894,7 +3894,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -3903,7 +3903,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -4069,7 +4069,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -4080,7 +4080,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>23</x:v>
@@ -4128,7 +4128,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S47" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="T47" s="0" t="s">
         <x:v>46</x:v>
@@ -4258,7 +4258,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>57</x:v>
@@ -4284,7 +4284,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>23</x:v>
@@ -4311,7 +4311,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O50" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P50" s="0" t="s">
         <x:v>23</x:v>
@@ -4414,7 +4414,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>23</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4760,7 +4760,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>23</x:v>
@@ -4831,7 +4831,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>36</x:v>
@@ -5044,7 +5044,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -5061,10 +5061,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>23</x:v>
@@ -5138,7 +5138,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
         <x:v>24</x:v>
@@ -5150,13 +5150,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
         <x:v>24</x:v>
@@ -5168,7 +5168,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S63" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T63" s="0" t="s">
         <x:v>53</x:v>
@@ -5315,7 +5315,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>23</x:v>
@@ -5584,7 +5584,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
         <x:v>23</x:v>
@@ -5759,7 +5759,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5865,7 +5865,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M74" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N74" s="0" t="s">
         <x:v>23</x:v>
@@ -5889,7 +5889,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5918,7 +5918,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
         <x:v>36</x:v>
@@ -5948,10 +5948,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="S75" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
         <x:v>217</x:v>
@@ -6125,7 +6125,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
         <x:v>23</x:v>
@@ -6160,7 +6160,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
         <x:v>23</x:v>
@@ -6279,7 +6279,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -370,13 +370,13 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>485</x:t>
+    <x:t>483</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3546</x:t>
+    <x:t>3544</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -355,7 +355,7 @@
     <x:t>129</x:t>
   </x:si>
   <x:si>
-    <x:t>527</x:t>
+    <x:t>525</x:t>
   </x:si>
   <x:si>
     <x:t>435</x:t>
@@ -370,13 +370,13 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>483</x:t>
+    <x:t>484</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3544</x:t>
+    <x:t>3543</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -349,10 +349,10 @@
     <x:t>77</x:t>
   </x:si>
   <x:si>
-    <x:t>562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
+    <x:t>563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
   </x:si>
   <x:si>
     <x:t>525</x:t>
@@ -364,19 +364,19 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>467</x:t>
+    <x:t>468</x:t>
   </x:si>
   <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>484</x:t>
+    <x:t>483</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3543</x:t>
+    <x:t>3545</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -205,10 +205,7 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
+    <x:t>242</x:t>
   </x:si>
   <x:si>
     <x:t>Brown</x:t>
@@ -1510,7 +1507,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1534,12 +1531,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1604,7 +1601,7 @@
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>23</x:v>
@@ -1640,7 +1637,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>24</x:v>
@@ -1664,12 +1661,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>23</x:v>
@@ -1684,7 +1681,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
@@ -1729,12 +1726,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1799,7 +1796,7 @@
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1814,7 +1811,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>23</x:v>
@@ -1835,13 +1832,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
         <x:v>24</x:v>
@@ -1859,18 +1856,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>37</x:v>
@@ -1906,13 +1903,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>22</x:v>
@@ -1924,12 +1921,12 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1994,7 +1991,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2059,7 +2056,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>23</x:v>
@@ -2124,7 +2121,7 @@
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>23</x:v>
@@ -2139,7 +2136,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>23</x:v>
@@ -2160,13 +2157,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>36</x:v>
@@ -2178,24 +2175,24 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>23</x:v>
@@ -2204,7 +2201,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>23</x:v>
@@ -2213,7 +2210,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>36</x:v>
@@ -2225,36 +2222,36 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S18" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="P18" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q18" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S18" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="T18" s="0" t="s">
+      <x:c r="U18" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="U18" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2319,7 +2316,7 @@
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>22</x:v>
@@ -2373,18 +2370,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="T20" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2449,7 +2446,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2514,7 +2511,7 @@
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2529,7 +2526,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2574,12 +2571,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2594,7 +2591,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>23</x:v>
@@ -2615,7 +2612,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
         <x:v>23</x:v>
@@ -2639,12 +2636,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U24" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>23</x:v>
@@ -2709,72 +2706,72 @@
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
+      <x:c r="F26" s="0" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="I26" s="0" t="s">
+      <x:c r="J26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="J26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L26" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="M26" s="0" t="s">
+      <x:c r="N26" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="N26" s="0" t="s">
+      <x:c r="O26" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="O26" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="P26" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="R26" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="S26" s="0" t="s">
+      <x:c r="T26" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="T26" s="0" t="s">
+      <x:c r="U26" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="U26" s="1" t="s">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2839,32 +2836,32 @@
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -2875,7 +2872,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
@@ -2899,12 +2896,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -2946,7 +2943,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P29" s="0" t="s">
         <x:v>23</x:v>
@@ -2964,12 +2961,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3029,12 +3026,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3099,7 +3096,7 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3141,7 +3138,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3164,7 +3161,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3179,7 +3176,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>23</x:v>
@@ -3188,7 +3185,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
         <x:v>24</x:v>
@@ -3200,13 +3197,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M33" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N33" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>23</x:v>
@@ -3224,12 +3221,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3289,12 +3286,12 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3354,12 +3351,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U35" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3374,7 +3371,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>23</x:v>
@@ -3419,12 +3416,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3439,7 +3436,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>23</x:v>
@@ -3484,12 +3481,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3549,12 +3546,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3614,12 +3611,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3655,7 +3652,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N40" s="0" t="s">
         <x:v>24</x:v>
@@ -3679,12 +3676,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U40" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3744,12 +3741,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -3764,7 +3761,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3773,7 +3770,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>23</x:v>
@@ -3785,13 +3782,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>22</x:v>
@@ -3809,12 +3806,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3856,7 +3853,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P43" s="0" t="s">
         <x:v>23</x:v>
@@ -3874,12 +3871,12 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3894,7 +3891,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -3903,7 +3900,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3915,7 +3912,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>22</x:v>
@@ -3939,12 +3936,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4009,7 +4006,7 @@
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>23</x:v>
@@ -4069,18 +4066,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>23</x:v>
@@ -4089,7 +4086,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>22</x:v>
@@ -4110,7 +4107,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
         <x:v>44</x:v>
@@ -4128,18 +4125,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S47" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="T47" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>23</x:v>
@@ -4204,13 +4201,13 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>23</x:v>
@@ -4219,16 +4216,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
         <x:v>36</x:v>
@@ -4246,7 +4243,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
         <x:v>39</x:v>
@@ -4258,18 +4255,18 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4284,7 +4281,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>23</x:v>
@@ -4311,7 +4308,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O50" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P50" s="0" t="s">
         <x:v>23</x:v>
@@ -4329,12 +4326,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U50" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>23</x:v>
@@ -4349,7 +4346,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
@@ -4376,7 +4373,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>23</x:v>
@@ -4394,12 +4391,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>24</x:v>
@@ -4414,7 +4411,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>23</x:v>
@@ -4435,7 +4432,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
@@ -4459,12 +4456,12 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4524,12 +4521,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4544,7 +4541,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>23</x:v>
@@ -4565,7 +4562,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>36</x:v>
@@ -4589,12 +4586,12 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4659,10 +4656,10 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>51</x:v>
@@ -4674,16 +4671,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
         <x:v>176</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
         <x:v>22</x:v>
@@ -4695,13 +4692,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O56" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
         <x:v>57</x:v>
@@ -4713,33 +4710,33 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="T56" s="0" t="s">
+      <x:c r="U56" s="1" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="U56" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>23</x:v>
@@ -4760,7 +4757,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>23</x:v>
@@ -4784,12 +4781,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4831,7 +4828,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>36</x:v>
@@ -4849,12 +4846,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4890,7 +4887,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>22</x:v>
@@ -4914,12 +4911,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U59" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4984,7 +4981,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>23</x:v>
@@ -5044,12 +5041,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5061,7 +5058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
         <x:v>45</x:v>
@@ -5073,7 +5070,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
         <x:v>36</x:v>
@@ -5085,13 +5082,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O62" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
         <x:v>37</x:v>
@@ -5103,18 +5100,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5129,7 +5126,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>36</x:v>
@@ -5138,7 +5135,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
         <x:v>24</x:v>
@@ -5150,13 +5147,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
         <x:v>24</x:v>
@@ -5168,18 +5165,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S63" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="T63" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5239,12 +5236,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>24</x:v>
@@ -5259,7 +5256,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5280,13 +5277,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5298,24 +5295,24 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>23</x:v>
@@ -5324,7 +5321,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>23</x:v>
@@ -5333,7 +5330,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>24</x:v>
@@ -5345,13 +5342,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O66" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
         <x:v>37</x:v>
@@ -5369,12 +5366,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5439,7 +5436,7 @@
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>23</x:v>
@@ -5504,7 +5501,7 @@
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5569,7 +5566,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>44</x:v>
@@ -5584,7 +5581,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
         <x:v>23</x:v>
@@ -5634,7 +5631,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5699,7 +5696,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5759,12 +5756,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5829,7 +5826,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5865,7 +5862,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M74" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N74" s="0" t="s">
         <x:v>23</x:v>
@@ -5889,18 +5886,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5909,7 +5906,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>23</x:v>
@@ -5918,7 +5915,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
         <x:v>36</x:v>
@@ -5930,13 +5927,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
         <x:v>24</x:v>
@@ -5948,18 +5945,18 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="S75" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>23</x:v>
@@ -5974,7 +5971,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -5995,7 +5992,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>23</x:v>
@@ -6019,12 +6016,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6089,7 +6086,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6125,7 +6122,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
         <x:v>23</x:v>
@@ -6149,18 +6146,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
         <x:v>23</x:v>
@@ -6169,7 +6166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
         <x:v>23</x:v>
@@ -6190,7 +6187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>36</x:v>
@@ -6208,18 +6205,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S79" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>
@@ -6279,7 +6276,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -130,102 +130,102 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
     <x:t>107</x:t>
   </x:si>
   <x:si>
@@ -277,9 +277,6 @@
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dakota</x:t>
   </x:si>
   <x:si>
@@ -553,10 +550,10 @@
     <x:t>123</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
   </x:si>
   <x:si>
     <x:t>1105</x:t>
@@ -1291,57 +1288,57 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
+      <x:c r="J4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="N4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
+      <x:c r="P4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
+      <x:c r="T4" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="T4" s="0" t="s">
+      <x:c r="U4" s="1" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="U4" s="1" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>23</x:v>
@@ -1353,7 +1350,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>42</x:v>
@@ -1365,63 +1362,63 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
+      <x:c r="N5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S5" s="0" t="s">
+      <x:c r="T5" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="T5" s="0" t="s">
+      <x:c r="U5" s="1" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="U5" s="1" t="s">
-        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>23</x:v>
@@ -1466,28 +1463,28 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U6" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -1495,7 +1492,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>24</x:v>
@@ -1507,13 +1504,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P7" s="0" t="s">
         <x:v>23</x:v>
@@ -1525,18 +1522,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1572,7 +1569,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
         <x:v>23</x:v>
@@ -1596,12 +1593,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>23</x:v>
@@ -1613,7 +1610,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>39</x:v>
@@ -1637,13 +1634,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P9" s="0" t="s">
         <x:v>23</x:v>
@@ -1658,15 +1655,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>23</x:v>
@@ -1681,34 +1678,34 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M10" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
         <x:v>23</x:v>
@@ -1720,7 +1717,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T10" s="0" t="s">
         <x:v>36</x:v>
@@ -1746,7 +1743,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>23</x:v>
@@ -1767,7 +1764,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
         <x:v>26</x:v>
@@ -1791,7 +1788,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1820,7 +1817,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>23</x:v>
@@ -1850,7 +1847,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="T12" s="0" t="s">
         <x:v>36</x:v>
@@ -1864,7 +1861,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>78</x:v>
@@ -1873,7 +1870,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>27</x:v>
@@ -1897,10 +1894,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
         <x:v>73</x:v>
@@ -1918,7 +1915,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
         <x:v>79</x:v>
@@ -1962,7 +1959,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
         <x:v>24</x:v>
@@ -2051,7 +2048,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U15" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -2071,7 +2068,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>23</x:v>
@@ -2092,7 +2089,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>23</x:v>
@@ -2116,7 +2113,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2127,13 +2124,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>84</x:v>
@@ -2181,12 +2178,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>36</x:v>
@@ -2198,7 +2195,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>76</x:v>
@@ -2210,7 +2207,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
         <x:v>36</x:v>
@@ -2222,36 +2219,36 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S18" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="P18" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q18" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S18" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="T18" s="0" t="s">
+      <x:c r="U18" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="U18" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2316,7 +2313,7 @@
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>22</x:v>
@@ -2352,13 +2349,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P20" s="0" t="s">
         <x:v>22</x:v>
@@ -2376,12 +2373,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2423,7 +2420,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O21" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
         <x:v>23</x:v>
@@ -2446,7 +2443,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2511,23 +2508,23 @@
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -2535,7 +2532,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>23</x:v>
@@ -2571,27 +2568,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>23</x:v>
@@ -2612,7 +2609,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
         <x:v>23</x:v>
@@ -2630,7 +2627,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S24" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T24" s="0" t="s">
         <x:v>24</x:v>
@@ -2641,7 +2638,7 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>23</x:v>
@@ -2701,77 +2698,77 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
+      <x:c r="F26" s="0" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="I26" s="0" t="s">
+      <x:c r="J26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="J26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K26" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L26" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="M26" s="0" t="s">
+      <x:c r="N26" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="N26" s="0" t="s">
+      <x:c r="O26" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="O26" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="P26" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="R26" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="S26" s="0" t="s">
+      <x:c r="T26" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="T26" s="0" t="s">
+      <x:c r="U26" s="1" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="U26" s="1" t="s">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2786,7 +2783,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>24</x:v>
@@ -2836,7 +2833,7 @@
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>23</x:v>
@@ -2860,7 +2857,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>23</x:v>
@@ -2872,7 +2869,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
@@ -2890,7 +2887,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T28" s="0" t="s">
         <x:v>23</x:v>
@@ -2901,7 +2898,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>24</x:v>
@@ -2913,10 +2910,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -2937,7 +2934,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>23</x:v>
@@ -2961,12 +2958,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2981,7 +2978,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>23</x:v>
@@ -3026,12 +3023,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3046,7 +3043,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>23</x:v>
@@ -3067,7 +3064,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
         <x:v>23</x:v>
@@ -3091,12 +3088,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3120,10 +3117,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
         <x:v>23</x:v>
@@ -3138,7 +3135,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3156,12 +3153,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3176,7 +3173,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>23</x:v>
@@ -3185,48 +3182,48 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="J33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K33" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L33" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M33" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="N33" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O33" s="0" t="s">
+      <x:c r="P33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U33" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="P33" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q33" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S33" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="T33" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U33" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3291,7 +3288,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3306,7 +3303,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>23</x:v>
@@ -3327,7 +3324,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M35" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N35" s="0" t="s">
         <x:v>23</x:v>
@@ -3356,7 +3353,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3416,12 +3413,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3445,7 +3442,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
         <x:v>36</x:v>
@@ -3457,7 +3454,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="N37" s="0" t="s">
         <x:v>23</x:v>
@@ -3475,18 +3472,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T37" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3501,7 +3498,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
         <x:v>23</x:v>
@@ -3551,7 +3548,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3566,7 +3563,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>23</x:v>
@@ -3611,18 +3608,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>23</x:v>
@@ -3631,7 +3628,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>24</x:v>
@@ -3652,13 +3649,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N40" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O40" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P40" s="0" t="s">
         <x:v>36</x:v>
@@ -3670,18 +3667,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S40" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T40" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U40" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3696,7 +3693,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>23</x:v>
@@ -3705,7 +3702,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
         <x:v>23</x:v>
@@ -3741,12 +3738,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -3758,7 +3755,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>75</x:v>
@@ -3770,7 +3767,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>23</x:v>
@@ -3782,13 +3779,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>22</x:v>
@@ -3803,80 +3800,80 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T42" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O43" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T43" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U43" s="1" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L43" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M43" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O43" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="P43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R43" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S43" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="T43" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="U43" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3897,7 +3894,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
         <x:v>75</x:v>
@@ -3912,13 +3909,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
         <x:v>24</x:v>
@@ -3936,12 +3933,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4006,7 +4003,7 @@
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>23</x:v>
@@ -4027,7 +4024,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>24</x:v>
@@ -4060,21 +4057,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S46" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T46" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>73</x:v>
@@ -4086,31 +4083,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J47" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K47" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L47" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M47" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="N47" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
         <x:v>24</x:v>
@@ -4128,15 +4125,15 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="T47" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>23</x:v>
@@ -4201,31 +4198,31 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
+      <x:c r="G49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s">
-        <x:v>160</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
         <x:v>36</x:v>
@@ -4234,16 +4231,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L49" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
         <x:v>39</x:v>
@@ -4252,21 +4249,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R49" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4302,7 +4299,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M50" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N50" s="0" t="s">
         <x:v>22</x:v>
@@ -4326,12 +4323,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U50" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>23</x:v>
@@ -4346,7 +4343,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
@@ -4370,10 +4367,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>23</x:v>
@@ -4391,12 +4388,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>24</x:v>
@@ -4420,7 +4417,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
         <x:v>23</x:v>
@@ -4432,7 +4429,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
@@ -4453,15 +4450,15 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="T52" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4476,7 +4473,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
         <x:v>23</x:v>
@@ -4497,7 +4494,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>23</x:v>
@@ -4526,43 +4523,43 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C54" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L54" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M54" s="0" t="s">
-        <x:v>171</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>36</x:v>
@@ -4577,21 +4574,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R54" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S54" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="S54" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="T54" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4656,13 +4653,13 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
         <x:v>23</x:v>
@@ -4671,37 +4668,37 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s">
+      <x:c r="J56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="J56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L56" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="M56" s="0" t="s">
+      <x:c r="N56" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O56" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="N56" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="O56" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
       <x:c r="P56" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
         <x:v>22</x:v>
@@ -4710,33 +4707,33 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="T56" s="0" t="s">
+      <x:c r="U56" s="1" t="s">
         <x:v>180</x:v>
-      </x:c>
-      <x:c r="U56" s="1" t="s">
-        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
         <x:v>182</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>183</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>23</x:v>
@@ -4775,18 +4772,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S57" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T57" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4846,12 +4843,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4875,7 +4872,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
         <x:v>23</x:v>
@@ -4884,16 +4881,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L59" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P59" s="0" t="s">
         <x:v>23</x:v>
@@ -4905,7 +4902,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S59" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T59" s="0" t="s">
         <x:v>22</x:v>
@@ -4916,7 +4913,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4976,12 +4973,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>23</x:v>
@@ -5046,7 +5043,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>24</x:v>
@@ -5061,7 +5058,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>23</x:v>
@@ -5070,7 +5067,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
         <x:v>36</x:v>
@@ -5082,13 +5079,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="O62" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
         <x:v>37</x:v>
@@ -5100,18 +5097,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>24</x:v>
@@ -5126,7 +5123,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>36</x:v>
@@ -5147,10 +5144,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
         <x:v>84</x:v>
@@ -5168,15 +5165,15 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="T63" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5185,7 +5182,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>23</x:v>
@@ -5212,7 +5209,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>22</x:v>
@@ -5236,12 +5233,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>24</x:v>
@@ -5253,10 +5250,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5265,7 +5262,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5274,39 +5271,39 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="N65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O65" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="P65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R65" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S65" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="T65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="U65" s="1" t="s">
         <x:v>199</x:v>
-      </x:c>
-      <x:c r="N65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O65" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="P65" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q65" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R65" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="S65" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="T65" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="U65" s="1" t="s">
-        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>28</x:v>
@@ -5318,20 +5315,20 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="G66" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H66" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I66" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -5339,16 +5336,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L66" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N66" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O66" s="0" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="N66" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="O66" s="0" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
         <x:v>37</x:v>
@@ -5363,21 +5360,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="T66" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
@@ -5386,7 +5383,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5407,13 +5404,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
         <x:v>23</x:v>
@@ -5436,7 +5433,7 @@
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>23</x:v>
@@ -5501,7 +5498,7 @@
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5561,15 +5558,15 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>24</x:v>
@@ -5626,12 +5623,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5696,7 +5693,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5711,7 +5708,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>23</x:v>
@@ -5761,7 +5758,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5826,7 +5823,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5841,7 +5838,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
         <x:v>23</x:v>
@@ -5886,18 +5883,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5906,16 +5903,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
         <x:v>36</x:v>
@@ -5924,16 +5921,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L75" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
         <x:v>24</x:v>
@@ -5942,7 +5939,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="R75" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="S75" s="0" t="s">
         <x:v>84</x:v>
@@ -5951,12 +5948,12 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>23</x:v>
@@ -5971,7 +5968,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -5992,7 +5989,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>23</x:v>
@@ -6010,18 +6007,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6086,7 +6083,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6110,7 +6107,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
         <x:v>23</x:v>
@@ -6140,18 +6137,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S78" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T78" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6166,7 +6163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
         <x:v>23</x:v>
@@ -6184,10 +6181,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L79" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>36</x:v>
@@ -6196,7 +6193,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="Q79" s="0" t="s">
         <x:v>24</x:v>
@@ -6205,18 +6202,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S79" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>
@@ -6252,13 +6249,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O80" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P80" s="0" t="s">
         <x:v>23</x:v>
@@ -6276,7 +6273,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2023.xlsx
@@ -349,10 +349,10 @@
     <x:t>130</x:t>
   </x:si>
   <x:si>
-    <x:t>525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>435</x:t>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -370,7 +370,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>3545</x:t>
+    <x:t>3547</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
